--- a/DDAf_2024_Tableau_annexe_Tab02.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D22E8A38-D2EC-4622-987A-240D38456CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC6E7FA0-5F09-4830-BE2A-C108C390ADCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{40D53208-2BC6-449B-B978-9C167F4C96D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C8AA33EE-7EC3-4B2F-81E1-74E288A6828E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D868A76-E322-42A1-B156-0441ADF7B7B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D745614E-23DE-4E50-B3F6-1E9E257A82A7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1534,20 +1534,20 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.54296875" style="78" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="42" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="42" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1593,7 +1593,7 @@
       <c r="AP1" s="3"/>
       <c r="AQ1" s="3"/>
     </row>
-    <row r="2" spans="1:43" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:43" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>37</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>3.44310495077556</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>39</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>4.1194347785938197</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>3.0678270736875799</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>43</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>2.2492540824735001</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>45</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>4.3595659911670301</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>47</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>8.45313599177444</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>49</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>2.6209265090557898</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>52</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>1.3575290331437899</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>54</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>4.8900306813777004</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>56</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>3.0892257521782902</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>58</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>2.4948672798996898</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>60</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>5.5872730580357501</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>62</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>4.5079898234668496</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>64</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>2.1335478048671002</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>66</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>2.8914967195761401</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>68</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>3.7642538056363199</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>70</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>5.01899549440712</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>72</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>-0.68361748462079996</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>74</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>2.61720917081258</v>
       </c>
     </row>
-    <row r="22" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>76</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>3.4386667305343899</v>
       </c>
     </row>
-    <row r="23" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>58</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>4.0357627852602604</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>79</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>4.1923848280401401</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>81</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>5.6034075090814799</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>83</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>85</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>6.7937678977981797</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>87</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>5.30427344788143</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>89</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>4.5799732362642498</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>91</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>3.4248038450122</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>93</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>7.2239180466189703</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>95</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>3.6955452431408902</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>97</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>4.1597773979283703</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>99</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>5.7521815589814498</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>101</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>5.8538971744049402</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>103</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>6.3580635489272801</v>
       </c>
     </row>
-    <row r="37" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>105</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>6.8415410553283502</v>
       </c>
     </row>
-    <row r="38" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>58</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>6.0644991283130896</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>108</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>2.3912388689843098</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>110</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>5.0687897908006097</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>112</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>3.4965706902492699</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>114</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>4.4061666719439998</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>116</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>3.3735670124678898</v>
       </c>
     </row>
-    <row r="44" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>118</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>1.4896462007449001</v>
       </c>
     </row>
-    <row r="45" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>58</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>4.0584460147467896</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>121</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>6.0200880341789498</v>
       </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>123</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>5.1213988525301097</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>125</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>4.58785180387091</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>127</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>6.1598757083338098</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>129</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>5.1721721494592403</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>131</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>4.8649821861708604</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>133</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>5.6417043635063697</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>135</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>4.7997135581728099</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>137</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>6.4082143409243102</v>
       </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>139</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>4.8198776971874997</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>141</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>5.9517819359846502</v>
       </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>143</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>3.18766109399369</v>
       </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>145</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>5.9427306542337197</v>
       </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>147</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>4.5071298864993699</v>
       </c>
     </row>
-    <row r="60" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>149</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>5.4599696361846304</v>
       </c>
     </row>
-    <row r="61" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="28"/>
       <c r="B61" s="29" t="s">
         <v>151</v>
@@ -9451,7 +9451,7 @@
         <v>4.1304085611191299</v>
       </c>
     </row>
-    <row r="62" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="47"/>
       <c r="B62" s="48" t="s">
         <v>152</v>
@@ -9580,7 +9580,7 @@
         <v>4.1681664201744804</v>
       </c>
     </row>
-    <row r="63" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="47"/>
       <c r="B63" s="52" t="s">
         <v>153</v>
@@ -9709,7 +9709,7 @@
         <v>3.0956884483781102</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64" s="56"/>
       <c r="B64" s="57" t="s">
         <v>154</v>
@@ -9838,7 +9838,7 @@
         <v>2.57224217893368</v>
       </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65" s="56"/>
       <c r="B65" s="52" t="s">
         <v>155</v>
@@ -9967,7 +9967,7 @@
         <v>4.5934303462469099</v>
       </c>
     </row>
-    <row r="66" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="56"/>
       <c r="B66" s="64" t="s">
         <v>156</v>
@@ -10096,7 +10096,7 @@
         <v>3.1533274893858398</v>
       </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67" s="56"/>
       <c r="B67" s="52" t="s">
         <v>157</v>
@@ -10225,7 +10225,7 @@
         <v>5.1460426973661599</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68" s="56"/>
       <c r="B68" s="52" t="s">
         <v>158</v>
@@ -10354,7 +10354,7 @@
         <v>4.3637469202952897</v>
       </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69" s="56"/>
       <c r="B69" s="52" t="s">
         <v>159</v>
@@ -10483,7 +10483,7 @@
         <v>5.8728298196002697</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70" s="56"/>
       <c r="B70" s="52" t="s">
         <v>160</v>
@@ -10612,7 +10612,7 @@
         <v>4.0424498342769297</v>
       </c>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71" s="56"/>
       <c r="B71" s="52" t="s">
         <v>161</v>
@@ -10741,7 +10741,7 @@
         <v>4.1304085611191299</v>
       </c>
     </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A72" s="56"/>
       <c r="B72" s="52" t="s">
         <v>162</v>
@@ -10870,7 +10870,7 @@
         <v>6.1266885930439301</v>
       </c>
     </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A73" s="56"/>
       <c r="B73" s="52" t="s">
         <v>163</v>
@@ -10999,7 +10999,7 @@
         <v>3.2558982474520501</v>
       </c>
     </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A74" s="56"/>
       <c r="B74" s="52" t="s">
         <v>163</v>
@@ -11128,7 +11128,7 @@
         <v>2.7421020262643299</v>
       </c>
     </row>
-    <row r="75" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="56"/>
       <c r="B75" s="52" t="s">
         <v>164</v>
@@ -11257,7 +11257,7 @@
         <v>4.4528710931633002</v>
       </c>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A76" s="56"/>
       <c r="B76" s="68" t="s">
         <v>165</v>
@@ -11386,7 +11386,7 @@
         <v>4.8044030062267797</v>
       </c>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A77" s="56"/>
       <c r="B77" s="52" t="s">
         <v>166</v>
@@ -11515,7 +11515,7 @@
         <v>2.6631212374587099</v>
       </c>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A78" s="56"/>
       <c r="B78" s="52" t="s">
         <v>166</v>
@@ -11644,7 +11644,7 @@
         <v>1.6496082408575601</v>
       </c>
     </row>
-    <row r="79" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="56"/>
       <c r="B79" s="64" t="s">
         <v>167</v>
@@ -11773,7 +11773,7 @@
         <v>1.8552967962732501</v>
       </c>
     </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A80" s="56"/>
       <c r="B80" s="52" t="s">
         <v>168</v>
@@ -11902,7 +11902,7 @@
         <v>2.8225649632839498</v>
       </c>
     </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A81" s="56"/>
       <c r="B81" s="52" t="s">
         <v>169</v>
@@ -12031,7 +12031,7 @@
         <v>2.7200494216159701</v>
       </c>
     </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A82" s="56"/>
       <c r="B82" s="52" t="s">
         <v>170</v>
@@ -12160,7 +12160,7 @@
         <v>4.3936770020651901</v>
       </c>
     </row>
-    <row r="83" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="56"/>
       <c r="B83" s="52" t="s">
         <v>171</v>
@@ -12289,7 +12289,7 @@
         <v>3.1283778241543199</v>
       </c>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A84" s="56"/>
       <c r="B84" s="68" t="s">
         <v>172</v>
@@ -12418,7 +12418,7 @@
         <v>5.9820579072759097</v>
       </c>
     </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A85" s="56"/>
       <c r="B85" s="72" t="s">
         <v>173</v>
@@ -12547,7 +12547,7 @@
         <v>5.2813755419844499</v>
       </c>
     </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A86" s="56"/>
       <c r="B86" s="52" t="s">
         <v>174</v>
@@ -12676,7 +12676,7 @@
         <v>4.2001689842761296</v>
       </c>
     </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A87" s="56"/>
       <c r="B87" s="52" t="s">
         <v>175</v>
@@ -12805,7 +12805,7 @@
         <v>5.9195935265517798</v>
       </c>
     </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A88" s="56"/>
       <c r="B88" s="52" t="s">
         <v>176</v>
@@ -12934,7 +12934,7 @@
         <v>1.86208786723405</v>
       </c>
     </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A89" s="56"/>
       <c r="B89" s="52" t="s">
         <v>177</v>
@@ -13063,7 +13063,7 @@
         <v>3.3167823248610802</v>
       </c>
     </row>
-    <row r="90" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="56"/>
       <c r="B90" s="64" t="s">
         <v>178</v>
@@ -13192,7 +13192,7 @@
         <v>1.9314873357342499</v>
       </c>
     </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A91" s="56"/>
       <c r="B91" s="52" t="s">
         <v>179</v>
@@ -13321,7 +13321,7 @@
         <v>5.6609406846401997</v>
       </c>
     </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A92" s="56"/>
       <c r="B92" s="52" t="s">
         <v>180</v>
@@ -13450,7 +13450,7 @@
         <v>6.0568606622360299</v>
       </c>
     </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A93" s="56"/>
       <c r="B93" s="52" t="s">
         <v>181</v>
@@ -13579,7 +13579,7 @@
         <v>3.7523255438595098</v>
       </c>
     </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A94" s="56"/>
       <c r="B94" s="52" t="s">
         <v>182</v>
@@ -13708,7 +13708,7 @@
         <v>3.9900950605920502</v>
       </c>
     </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A95" s="56"/>
       <c r="B95" s="52" t="s">
         <v>183</v>
@@ -13837,7 +13837,7 @@
         <v>5.8173659436515903</v>
       </c>
     </row>
-    <row r="96" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="56"/>
       <c r="B96" s="52" t="s">
         <v>184</v>
@@ -13966,7 +13966,7 @@
         <v>3.8817310973258801</v>
       </c>
     </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A97" s="56"/>
       <c r="B97" s="68" t="s">
         <v>185</v>
@@ -14095,7 +14095,7 @@
         <v>4.71552319084185</v>
       </c>
     </row>
-    <row r="98" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="56"/>
       <c r="B98" s="64" t="s">
         <v>186</v>
@@ -14224,7 +14224,7 @@
         <v>4.4616463341830501</v>
       </c>
     </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A99" s="73"/>
       <c r="B99" s="74"/>
       <c r="C99" s="75"/>
@@ -14269,7 +14269,7 @@
       <c r="AP99" s="75"/>
       <c r="AQ99" s="75"/>
     </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>187</v>
       </c>
@@ -14315,7 +14315,7 @@
       <c r="AP100" s="76"/>
       <c r="AQ100" s="76"/>
     </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>188</v>
       </c>
@@ -14361,7 +14361,7 @@
       <c r="AP101" s="76"/>
       <c r="AQ101" s="76"/>
     </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>189</v>
       </c>
@@ -14407,7 +14407,7 @@
       <c r="AP102" s="76"/>
       <c r="AQ102" s="76"/>
     </row>
-    <row r="103" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>190</v>
       </c>
@@ -14453,7 +14453,7 @@
       <c r="AP103" s="76"/>
       <c r="AQ103" s="76"/>
     </row>
-    <row r="104" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>191</v>
       </c>
@@ -14499,7 +14499,7 @@
       <c r="AP104" s="76"/>
       <c r="AQ104" s="76"/>
     </row>
-    <row r="105" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>192</v>
       </c>
@@ -14545,7 +14545,7 @@
       <c r="AP105" s="76"/>
       <c r="AQ105" s="76"/>
     </row>
-    <row r="106" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
       <c r="E106" s="76"/>
@@ -14588,7 +14588,7 @@
       <c r="AP106" s="76"/>
       <c r="AQ106" s="76"/>
     </row>
-    <row r="107" spans="1:43" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="77" t="s">
         <v>193</v>
       </c>
@@ -14634,7 +14634,7 @@
       <c r="AP107" s="76"/>
       <c r="AQ107" s="76"/>
     </row>
-    <row r="108" spans="1:43" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="77"/>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
@@ -14678,7 +14678,7 @@
       <c r="AP108" s="76"/>
       <c r="AQ108" s="76"/>
     </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>195</v>
       </c>
@@ -14724,7 +14724,7 @@
       <c r="AP109" s="76"/>
       <c r="AQ109" s="76"/>
     </row>
-    <row r="110" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>196</v>
       </c>
@@ -14770,7 +14770,7 @@
       <c r="AP110" s="76"/>
       <c r="AQ110" s="76"/>
     </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B111" s="79" t="s">
         <v>197</v>
       </c>
@@ -14816,7 +14816,7 @@
       <c r="AP111" s="76"/>
       <c r="AQ111" s="76"/>
     </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>194</v>
       </c>
@@ -14862,7 +14862,7 @@
       <c r="AP112" s="76"/>
       <c r="AQ112" s="76"/>
     </row>
-    <row r="113" spans="2:43" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
@@ -14906,7 +14906,7 @@
       <c r="AP113" s="76"/>
       <c r="AQ113" s="76"/>
     </row>
-    <row r="114" spans="2:43" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="76"/>
       <c r="D114" s="76"/>
@@ -14951,11 +14951,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{ADC8A7D2-F934-4FDC-B355-69C9E56B2FE1}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{D7383204-E28A-458E-A737-D4569D631B2A}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{E13C0178-D2E8-43FD-A391-33EE8AA7D90F}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{96764F92-93AF-414E-9C15-C87F69CD1B41}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{1DCDFDAF-AED0-42E0-993A-D19B5946039C}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{A7CCB87C-1C20-4CE0-9667-742205407F8B}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{4863C9B6-CF04-4140-A8B0-F2BF76D6B798}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{9BD163DE-EE6A-43AC-BBE1-1EF612AC9103}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{F58B09CA-8456-4ABB-A873-682CB54CA57B}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{482B786A-9AF3-495B-96DC-CB59701AB1D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab02.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82E09E26-EC91-424E-A51D-5A47871F96EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0E01256-0C2E-43EE-B895-1F734F241C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{508162A3-D6BE-4799-AD4F-73DA3A335EE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B1A907E8-6540-459E-9B08-DD2253EB98FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="200">
   <si>
     <t>Tableau 2 : Taux de croissance annuel du PIB réel, 1990‑2029</t>
   </si>
@@ -534,13 +534,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -1523,7 +1529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0502621-A9CA-4C26-8C6F-76B82B245749}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A5E910-5849-4062-B8E6-E6CDEBB60484}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10995,7 +11001,7 @@
     <row r="74" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A74" s="55"/>
       <c r="B74" s="51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C74" s="60">
         <v>2.5887710237150698</v>
@@ -11124,7 +11130,7 @@
     <row r="75" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="55"/>
       <c r="B75" s="51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C75" s="52">
         <v>-2.3995126083325</v>
@@ -11253,7 +11259,7 @@
     <row r="76" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A76" s="55"/>
       <c r="B76" s="67" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C76" s="68">
         <v>8.3788762045916307</v>
@@ -11382,7 +11388,7 @@
     <row r="77" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A77" s="55"/>
       <c r="B77" s="51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C77" s="60">
         <v>-1.2390471055873999</v>
@@ -11511,7 +11517,7 @@
     <row r="78" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A78" s="55"/>
       <c r="B78" s="51" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C78" s="60">
         <v>2.7268399929706999</v>
@@ -11640,7 +11646,7 @@
     <row r="79" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="55"/>
       <c r="B79" s="63" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C79" s="64">
         <v>3.0491068335767402</v>
@@ -11769,7 +11775,7 @@
     <row r="80" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A80" s="55"/>
       <c r="B80" s="51" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C80" s="60">
         <v>1.57852536646009</v>
@@ -11898,7 +11904,7 @@
     <row r="81" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A81" s="55"/>
       <c r="B81" s="51" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C81" s="60">
         <v>11.473384050759501</v>
@@ -12027,7 +12033,7 @@
     <row r="82" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A82" s="55"/>
       <c r="B82" s="51" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C82" s="60">
         <v>1.6490556429214001</v>
@@ -12156,7 +12162,7 @@
     <row r="83" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="55"/>
       <c r="B83" s="51" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C83" s="52">
         <v>3.01862303342073</v>
@@ -12285,7 +12291,7 @@
     <row r="84" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A84" s="55"/>
       <c r="B84" s="67" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C84" s="68">
         <v>1.05957337569675</v>
@@ -12414,7 +12420,7 @@
     <row r="85" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A85" s="55"/>
       <c r="B85" s="71" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C85" s="60">
         <v>10.3577739164826</v>
@@ -12543,7 +12549,7 @@
     <row r="86" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A86" s="55"/>
       <c r="B86" s="51" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C86" s="60">
         <v>1.9966324689958901</v>
@@ -12672,7 +12678,7 @@
     <row r="87" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A87" s="55"/>
       <c r="B87" s="51" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C87" s="60">
         <v>6.5128756119795099</v>
@@ -12801,7 +12807,7 @@
     <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A88" s="55"/>
       <c r="B88" s="51" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C88" s="60">
         <v>1.1749856820564699</v>
@@ -12930,7 +12936,7 @@
     <row r="89" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A89" s="55"/>
       <c r="B89" s="51" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C89" s="60">
         <v>3.3036315239955298</v>
@@ -13059,7 +13065,7 @@
     <row r="90" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="55"/>
       <c r="B90" s="63" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C90" s="64">
         <v>3.1674093349716301</v>
@@ -13188,7 +13194,7 @@
     <row r="91" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A91" s="55"/>
       <c r="B91" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C91" s="60">
         <v>1.4066822258607199</v>
@@ -13317,7 +13323,7 @@
     <row r="92" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A92" s="55"/>
       <c r="B92" s="51" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C92" s="60">
         <v>5.0028792135587503</v>
@@ -13446,7 +13452,7 @@
     <row r="93" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A93" s="55"/>
       <c r="B93" s="51" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C93" s="60">
         <v>6.2802417930574803</v>
@@ -13575,7 +13581,7 @@
     <row r="94" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A94" s="55"/>
       <c r="B94" s="51" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C94" s="60">
         <v>4.0257353720900397</v>
@@ -13704,7 +13710,7 @@
     <row r="95" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A95" s="55"/>
       <c r="B95" s="51" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C95" s="60">
         <v>3.73157056828664</v>
@@ -13833,7 +13839,7 @@
     <row r="96" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="55"/>
       <c r="B96" s="51" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C96" s="52">
         <v>3.8689406497711798</v>
@@ -13962,7 +13968,7 @@
     <row r="97" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A97" s="55"/>
       <c r="B97" s="67" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C97" s="68">
         <v>2.4164382047343498</v>
@@ -14091,7 +14097,7 @@
     <row r="98" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="55"/>
       <c r="B98" s="63" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C98" s="64">
         <v>8.8043629460226391</v>
@@ -14264,7 +14270,7 @@
     </row>
     <row r="100" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C100" s="75"/>
       <c r="D100" s="75"/>
@@ -14310,7 +14316,7 @@
     </row>
     <row r="101" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C101" s="75"/>
       <c r="D101" s="75"/>
@@ -14356,7 +14362,7 @@
     </row>
     <row r="102" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C102" s="75"/>
       <c r="D102" s="75"/>
@@ -14402,7 +14408,7 @@
     </row>
     <row r="103" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C103" s="75"/>
       <c r="D103" s="75"/>
@@ -14448,7 +14454,7 @@
     </row>
     <row r="104" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C104" s="75"/>
       <c r="D104" s="75"/>
@@ -14494,7 +14500,7 @@
     </row>
     <row r="105" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C105" s="75"/>
       <c r="D105" s="75"/>
@@ -14583,7 +14589,7 @@
     </row>
     <row r="107" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="76" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C107" s="75"/>
       <c r="D107" s="75"/>
@@ -14673,7 +14679,7 @@
     </row>
     <row r="109" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C109" s="75"/>
       <c r="D109" s="75"/>
@@ -14719,7 +14725,7 @@
     </row>
     <row r="110" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C110" s="75"/>
       <c r="D110" s="75"/>
@@ -14765,7 +14771,7 @@
     </row>
     <row r="111" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B111" s="77" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C111" s="75"/>
       <c r="D111" s="75"/>
@@ -14811,7 +14817,7 @@
     </row>
     <row r="112" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B112" s="77" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C112" s="75"/>
       <c r="D112" s="75"/>
@@ -14944,11 +14950,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{5741F45B-A84D-499A-8FB0-F9F0122E5D66}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{56B60C9E-919F-495B-8AEA-A21F576FC272}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{A9867842-E05D-497F-9439-FA0E37A23AB6}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{73599D63-F3D5-4C9E-95FD-A6E7415B0762}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{33A46031-D9A2-4ADC-A437-C64F75EED011}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{BA41A896-8955-4336-966A-EADB07A188B1}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A0459476-CBBF-41AB-AD62-C4792990CE53}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{57ECAD7C-8FEE-4B76-8D41-289CC13A0617}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{E156B1FE-C99B-410D-BD68-A85FD491B14F}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{746F5B98-5FD9-4774-BAA3-06AD7B64BCD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId6"/>
